--- a/data/trans_camb/P1404-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1404-Edad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-0.3269603687074533</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.1302189943599744</v>
+        <v>0.1302189943599742</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.718251900954342</v>
+        <v>-1.715419033406402</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.351357566731973</v>
+        <v>-1.423782658436846</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.706283600174382</v>
+        <v>-1.68880680779814</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.7205940264734781</v>
+        <v>-0.7480555273406905</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.8172173643646992</v>
+        <v>-0.9133447976112714</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.2027763393438025</v>
+        <v>-0.2939826377913686</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.9434671129833445</v>
+        <v>-0.9666419348001621</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.8930523387192404</v>
+        <v>-0.9673343084438957</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.5629248355488533</v>
+        <v>-0.6437770844191842</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.1872221955237531</v>
+        <v>-0.1863156080307498</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3435224017335054</v>
+        <v>0.3404126773878295</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.1714396491536672</v>
+        <v>-0.1721417775462758</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9905865805672478</v>
+        <v>0.9271526616663525</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5114912173139438</v>
+        <v>0.4718334905698635</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.860208112601852</v>
+        <v>3.822919327920223</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1675663549021811</v>
+        <v>0.1362329594661381</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2193047308192155</v>
+        <v>0.2302683782230132</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.412750861283809</v>
+        <v>1.252991625251</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.577892710932661</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.2301581930651128</v>
+        <v>0.2301581930651125</v>
       </c>
     </row>
     <row r="8">
@@ -785,8 +785,12 @@
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
-      <c r="I8" s="6" t="inlineStr"/>
-      <c r="J8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="K8" s="6" t="n">
         <v>-1</v>
       </c>
@@ -804,10 +808,14 @@
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
-      <c r="I9" s="6" t="inlineStr"/>
-      <c r="J9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>1.674326756539583</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>2.346440090133909</v>
+      </c>
       <c r="K9" s="6" t="n">
-        <v>6.198867436319405</v>
+        <v>5.873572430327444</v>
       </c>
     </row>
     <row r="10">
@@ -857,31 +865,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4737214049278696</v>
+        <v>0.5388429673974383</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2692665424741116</v>
+        <v>0.1751604038587112</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.4117894027176225</v>
+        <v>-0.4499309886918492</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.894435909003477</v>
+        <v>-1.993191488144217</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.715860632443692</v>
+        <v>-1.715071637809723</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.260735846719031</v>
+        <v>-1.30390350451396</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.2337473208519741</v>
+        <v>-0.2403479156004227</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.2565099736292752</v>
+        <v>-0.3728957078740626</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.4694501265212897</v>
+        <v>-0.4825361651523453</v>
       </c>
     </row>
     <row r="12">
@@ -892,31 +900,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.209790709312554</v>
+        <v>3.079575967497112</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.007664535912643</v>
+        <v>2.999877931162975</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.242771767312564</v>
+        <v>2.317958531006502</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.013283956987631</v>
+        <v>0.9897836467927877</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.206588452295696</v>
+        <v>1.302209006519631</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.064137061000471</v>
+        <v>2.000452992279059</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.68108133622977</v>
+        <v>1.728431796587633</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.822617779229528</v>
+        <v>1.643321068908421</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.616059138682505</v>
+        <v>1.746069939246494</v>
       </c>
     </row>
     <row r="13">
@@ -962,29 +970,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1485112688386142</v>
+        <v>0.1569313321975561</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.003161140166300646</v>
-      </c>
-      <c r="E14" s="6" t="inlineStr"/>
+        <v>-0.07919582061634921</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.6819965275853432</v>
+      </c>
       <c r="F14" s="6" t="n">
-        <v>-0.755803880634011</v>
+        <v>-0.7778034740331606</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6923288509475435</v>
+        <v>-0.6773719352262969</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.481491527307807</v>
+        <v>-0.5186162643762049</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1957515331671121</v>
+        <v>-0.1845961088974913</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.215778166565256</v>
+        <v>-0.2724228238046524</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3343340240440012</v>
+        <v>-0.3475527154819885</v>
       </c>
     </row>
     <row r="15">
@@ -995,29 +1005,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>10.89846518062082</v>
+        <v>13.04770106618966</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>10.32345731415109</v>
-      </c>
-      <c r="E15" s="6" t="inlineStr"/>
+        <v>11.24331553112736</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>9.783092413539967</v>
+      </c>
       <c r="F15" s="6" t="n">
-        <v>1.020144065555178</v>
+        <v>1.061295185228072</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.155463414528738</v>
+        <v>1.435046537097333</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.934528166609103</v>
+        <v>1.996706462878117</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.163392843492605</v>
+        <v>2.170917777338632</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.50636441146493</v>
+        <v>2.151274923134348</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>2.058426008214562</v>
+        <v>2.379445205189895</v>
       </c>
     </row>
     <row r="16">
@@ -1047,7 +1059,7 @@
         <v>-0.954445741755423</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-1.821937571080659</v>
+        <v>-1.821937571080658</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.8432903202833797</v>
@@ -1056,7 +1068,7 @@
         <v>-0.3590434789751511</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-0.5389337957159269</v>
+        <v>-0.5389337957159256</v>
       </c>
     </row>
     <row r="17">
@@ -1067,31 +1079,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.163663461501145</v>
+        <v>-1.013861639650361</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.186422203260716</v>
+        <v>-2.057286270652799</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.759127406174462</v>
+        <v>-1.667569239381387</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.665170126008521</v>
+        <v>-1.904724694726351</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.825348918668192</v>
+        <v>-2.890302751828177</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.468144793389947</v>
+        <v>-3.675487275888961</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.7911043528245143</v>
+        <v>-0.6544950463714498</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.745811761402876</v>
+        <v>-1.840169711177943</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-2.003569466337219</v>
+        <v>-2.064620797667606</v>
       </c>
     </row>
     <row r="18">
@@ -1102,31 +1114,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.899266528574419</v>
+        <v>3.747261222250425</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.485750040111362</v>
+        <v>2.487272138783008</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.207008821772012</v>
+        <v>3.190390918301171</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.382029044916318</v>
+        <v>2.381499102909055</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9853824184953373</v>
+        <v>1.007524988749459</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-0.2567857160690658</v>
+        <v>-0.2077540937370947</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.394026849743005</v>
+        <v>2.540866785312947</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.168510623493431</v>
+        <v>1.142070435862973</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9766067135763791</v>
+        <v>0.9919101058729676</v>
       </c>
     </row>
     <row r="19">
@@ -1152,7 +1164,7 @@
         <v>-0.2615101678825399</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.4991956894359553</v>
+        <v>-0.4991956894359552</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.2112383991666071</v>
@@ -1161,7 +1173,7 @@
         <v>-0.08993791094914226</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.1349991924792397</v>
+        <v>-0.1349991924792393</v>
       </c>
     </row>
     <row r="20">
@@ -1172,31 +1184,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2240139431690911</v>
+        <v>-0.2007144097302132</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3975061431718144</v>
+        <v>-0.3842985227701781</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3350508764370617</v>
+        <v>-0.3187056347690159</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3599227909789675</v>
+        <v>-0.3984736957140299</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6028121391470903</v>
+        <v>-0.6218003684555561</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.7323584117381037</v>
+        <v>-0.7439865237087225</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1694195196479732</v>
+        <v>-0.1441514753326358</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3711227539523796</v>
+        <v>-0.3930938656420242</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.4325037270954921</v>
+        <v>-0.4226624420292948</v>
       </c>
     </row>
     <row r="21">
@@ -1207,31 +1219,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.195920332197226</v>
+        <v>1.139112216498521</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.7425939287753456</v>
+        <v>0.8007632405379894</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.9662434231047204</v>
+        <v>0.9865065706990397</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.9622535009845925</v>
+        <v>0.9095039830285702</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4243757518269528</v>
+        <v>0.4283066279636898</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.06990501799902139</v>
+        <v>-0.07817175868423716</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7326141899286936</v>
+        <v>0.805017430836827</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3913260747982094</v>
+        <v>0.3554505828584298</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.3248382107578093</v>
+        <v>0.2926328879892131</v>
       </c>
     </row>
     <row r="22">
@@ -1261,7 +1273,7 @@
         <v>2.420502026834217</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>1.809755572161663</v>
+        <v>1.809755572161662</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>1.539685264336545</v>
@@ -1270,7 +1282,7 @@
         <v>1.098512634086496</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>2.599881773036371</v>
+        <v>2.599881773036372</v>
       </c>
     </row>
     <row r="23">
@@ -1281,31 +1293,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.842979824794908</v>
+        <v>-4.813795056504706</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.153262305358156</v>
+        <v>-4.006841598505209</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.5749151997648309</v>
+        <v>-0.3201000817881917</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5123737357194591</v>
+        <v>0.3467598952023878</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.165062300159942</v>
+        <v>-1.355649402691396</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.648942319259577</v>
+        <v>-1.289374491296728</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.195604699182719</v>
+        <v>-1.268794681007813</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.466880242127348</v>
+        <v>-1.369560248240741</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.3254804119743125</v>
+        <v>0.08968012498140124</v>
       </c>
     </row>
     <row r="24">
@@ -1316,31 +1328,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.347811615215868</v>
+        <v>2.355179066108724</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.16351218207323</v>
+        <v>3.409994345474085</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.274664615450373</v>
+        <v>7.214753180732375</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.131840592011947</v>
+        <v>7.647057888499956</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.781812083574215</v>
+        <v>5.862853541145433</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.489500734489855</v>
+        <v>4.699396909560901</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.086031788004564</v>
+        <v>4.110882129577742</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.735659142413592</v>
+        <v>3.719293562191666</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>5.33228654377241</v>
+        <v>5.04117535928056</v>
       </c>
     </row>
     <row r="25">
@@ -1366,7 +1378,7 @@
         <v>0.2944965959678863</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2201885599049025</v>
+        <v>0.2201885599049024</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.166511018891626</v>
@@ -1375,7 +1387,7 @@
         <v>0.118799901644759</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.2811671794576764</v>
+        <v>0.2811671794576766</v>
       </c>
     </row>
     <row r="26">
@@ -1386,31 +1398,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4010243066614816</v>
+        <v>-0.3899675260724105</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3321074745564436</v>
+        <v>-0.324882307382239</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.0526262722833752</v>
+        <v>-0.02255242764452586</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.04447735204929516</v>
+        <v>0.03008183933485219</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1138246946326109</v>
+        <v>-0.1541164285522804</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1629773219904199</v>
+        <v>-0.1231215633374456</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1132510526735937</v>
+        <v>-0.1224903275217935</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1410701649985286</v>
+        <v>-0.130599048777053</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.0296520054690785</v>
+        <v>0.005480743684008835</v>
       </c>
     </row>
     <row r="27">
@@ -1421,31 +1433,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2819099032075075</v>
+        <v>0.2883850692874863</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3716477561141808</v>
+        <v>0.4297017170041879</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.8526367396218096</v>
+        <v>0.8703970611042181</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.222738446634896</v>
+        <v>1.145314212167664</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.913799916536434</v>
+        <v>0.8739230791525979</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6723567156588408</v>
+        <v>0.7648917892224022</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5148857221932812</v>
+        <v>0.5225717256970849</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4797813992448049</v>
+        <v>0.4768371032859519</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.6702495883821529</v>
+        <v>0.6526634077750607</v>
       </c>
     </row>
     <row r="28">
@@ -1466,7 +1478,7 @@
         <v>2.165907240810047</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5.275508799684703</v>
+        <v>5.275508799684708</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>4.58749459046183</v>
@@ -1484,7 +1496,7 @@
         <v>2.508530157238503</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>4.508886064207498</v>
+        <v>4.508886064207493</v>
       </c>
     </row>
     <row r="29">
@@ -1495,31 +1507,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.741551418731556</v>
+        <v>-4.023225771818923</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.662098667833336</v>
+        <v>-3.153671741876262</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.05713515514669568</v>
+        <v>0.1676681156147672</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.345368012961853</v>
+        <v>-1.222722821976197</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.523501476974722</v>
+        <v>-2.652952197144144</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-1.123175185815397</v>
+        <v>-1.026070647484693</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.897801090280082</v>
+        <v>-0.9110280049796863</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.139372306705818</v>
+        <v>-1.252895598360881</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>1.011712574377127</v>
+        <v>0.9779044094824316</v>
       </c>
     </row>
     <row r="30">
@@ -1530,31 +1542,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>7.310540329932462</v>
+        <v>7.219669819663575</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.893419986107735</v>
+        <v>7.351382324834132</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>10.09963091169679</v>
+        <v>10.12993979377633</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>10.33546337532679</v>
+        <v>10.15430263990456</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>8.714458350278678</v>
+        <v>8.285376909691264</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>8.888011668262042</v>
+        <v>8.891894063444804</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>7.016010038308496</v>
+        <v>7.073347653025108</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>6.860268887870509</v>
+        <v>6.655523024154066</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>7.950870797518282</v>
+        <v>7.834778948674685</v>
       </c>
     </row>
     <row r="31">
@@ -1571,7 +1583,7 @@
         <v>0.1225359929714241</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.2984614008479343</v>
+        <v>0.2984614008479345</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.2164163231885716</v>
@@ -1589,7 +1601,7 @@
         <v>0.1288071298267382</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.2315207058485952</v>
+        <v>0.2315207058485949</v>
       </c>
     </row>
     <row r="32">
@@ -1600,31 +1612,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.192297958431346</v>
+        <v>-0.1944288594107101</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1800197888177815</v>
+        <v>-0.1458654805512902</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.004848322443509055</v>
+        <v>0.01048928331768144</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.08623259114303343</v>
+        <v>-0.04831308634043623</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1099995389560939</v>
+        <v>-0.1113602320764917</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.05214513609116177</v>
+        <v>-0.04285389675115295</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.0411219985502942</v>
+        <v>-0.0450388561368205</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.05269184075575006</v>
+        <v>-0.05895830409002993</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.04983039320626582</v>
+        <v>0.03965331518611254</v>
       </c>
     </row>
     <row r="33">
@@ -1635,31 +1647,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.4774827005200805</v>
+        <v>0.4874532121146403</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.5395336838521788</v>
+        <v>0.4995823698103019</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.6735038797211184</v>
+        <v>0.7240731051280127</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.5740074241872573</v>
+        <v>0.5650774784813735</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.4849395359965127</v>
+        <v>0.4642217313818178</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4936573953124837</v>
+        <v>0.5036301318302583</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.4180874114526801</v>
+        <v>0.3980522179906729</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.4018484817053766</v>
+        <v>0.3775362378529295</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.4614503150840157</v>
+        <v>0.4443607575157497</v>
       </c>
     </row>
     <row r="34">
@@ -1689,7 +1701,7 @@
         <v>3.004137028038834</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>7.236943708756883</v>
+        <v>7.236943708756871</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>11.47872496936378</v>
@@ -1709,31 +1721,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>9.38550891935861</v>
+        <v>9.627318175814196</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>4.913828522168863</v>
+        <v>5.225892819271302</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>3.751338574298425</v>
+        <v>4.737524752446429</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.3820895775696321</v>
+        <v>-0.5740059431007168</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-3.462041539494501</v>
+        <v>-4.268351275553528</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>0.9702670871560876</v>
+        <v>1.445453702419123</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>6.127262805804717</v>
+        <v>5.894838017573353</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>2.420612006465592</v>
+        <v>2.464376421968215</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>4.408043132884036</v>
+        <v>4.32702419499136</v>
       </c>
     </row>
     <row r="36">
@@ -1744,31 +1756,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>23.80431796730508</v>
+        <v>24.91726304079308</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>18.30805085075452</v>
+        <v>18.97554115918345</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>15.7181830558528</v>
+        <v>16.77835415722431</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>14.03374555723801</v>
+        <v>13.6433588591367</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>9.578578957648176</v>
+        <v>9.322986852390081</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>12.7357713649177</v>
+        <v>12.74012863141584</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>16.28356162997544</v>
+        <v>15.97451962402045</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>11.8721378840011</v>
+        <v>11.46798929242395</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>12.52516812082543</v>
+        <v>12.71121534648161</v>
       </c>
     </row>
     <row r="37">
@@ -1794,7 +1806,7 @@
         <v>0.1070151380235585</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2577986698452724</v>
+        <v>0.257798669845272</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.4746987812955281</v>
@@ -1814,31 +1826,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.3940504785690189</v>
+        <v>0.4163193500964525</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.2189445806751335</v>
+        <v>0.2208632097755188</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.1558135720860993</v>
+        <v>0.1913677315725334</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.0126706163185264</v>
+        <v>-0.01791939494620035</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.1099027311160669</v>
+        <v>-0.1402740347836278</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.03178518487826851</v>
+        <v>0.0446001852362955</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2350711082706015</v>
+        <v>0.2240274166905779</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.08878058134520452</v>
+        <v>0.08904233434284588</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.1655053670590779</v>
+        <v>0.1562124224241502</v>
       </c>
     </row>
     <row r="39">
@@ -1849,31 +1861,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.418185010071354</v>
+        <v>1.553949817840458</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.109465711029996</v>
+        <v>1.176632456335602</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.9805305263491205</v>
+        <v>1.057406519061785</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.5699040685509262</v>
+        <v>0.5526311671916685</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.3861896834394162</v>
+        <v>0.3727587306969258</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.5174530466065675</v>
+        <v>0.5229254729440167</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.7457702603654924</v>
+        <v>0.7196462619952652</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.5353234692925232</v>
+        <v>0.5188803846429605</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.5730570231601997</v>
+        <v>0.5870579553609948</v>
       </c>
     </row>
     <row r="40">
@@ -1923,31 +1935,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>2.835823749009303</v>
+        <v>3.056574605013081</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>2.282318683987984</v>
+        <v>2.133455754045784</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>7.188346061740861</v>
+        <v>7.913484673476001</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>2.585319991883007</v>
+        <v>0.8969701422534557</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>0.7816668803021012</v>
+        <v>0.6009195361334843</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>9.435927687172875</v>
+        <v>9.38328033973859</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>4.747796441298898</v>
+        <v>4.464836193398374</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>3.028317932665224</v>
+        <v>3.056108387927207</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>10.51786569282822</v>
+        <v>11.07040135437501</v>
       </c>
     </row>
     <row r="42">
@@ -1958,31 +1970,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>20.20349582372042</v>
+        <v>19.72403115927492</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>18.33578502737396</v>
+        <v>17.63994802086932</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>21.75755841275871</v>
+        <v>22.09356260817092</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>16.81352065045808</v>
+        <v>15.89907418998164</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>15.31311783077212</v>
+        <v>15.29134003392475</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>21.20839645753176</v>
+        <v>21.51215538939695</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>15.75855141213963</v>
+        <v>15.5663211273972</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>13.83948426775412</v>
+        <v>14.24634650199777</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>20.01170635101838</v>
+        <v>20.36960258711259</v>
       </c>
     </row>
     <row r="43">
@@ -2008,7 +2020,7 @@
         <v>0.319449230140127</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.6151027339571669</v>
+        <v>0.6151027339571666</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.4278733836259659</v>
@@ -2028,31 +2040,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.09526445500517434</v>
+        <v>0.1183828706212463</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.07762798794357199</v>
+        <v>0.06694124692993393</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.2730647598132745</v>
+        <v>0.2957843482735643</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.08787377905265831</v>
+        <v>0.04027199698593432</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.02991423172514856</v>
+        <v>0.01669857759634976</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3042962566196918</v>
+        <v>0.3089130024412345</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.177561758326445</v>
+        <v>0.1685545390142935</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.1166446290986634</v>
+        <v>0.1184630836284212</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.3807814505379996</v>
+        <v>0.4029310234341404</v>
       </c>
     </row>
     <row r="45">
@@ -2063,31 +2075,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.125856760188531</v>
+        <v>1.143510706145678</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.109863018640314</v>
+        <v>1.052582824514648</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.314101102818808</v>
+        <v>1.330794199144729</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.7641866799796414</v>
+        <v>0.7366018938670263</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.7166317284735548</v>
+        <v>0.6911718511677721</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.9759989147990049</v>
+        <v>0.9942954315969446</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.7510324620920336</v>
+        <v>0.7336839504137697</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.6493468091319162</v>
+        <v>0.673314311796104</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.9702268020242231</v>
+        <v>0.9819489666271148</v>
       </c>
     </row>
     <row r="46">
@@ -2108,7 +2120,7 @@
         <v>3.527888238526517</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>6.449248505440511</v>
+        <v>6.449248505440513</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>3.502978372962248</v>
@@ -2137,31 +2149,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>2.025034898960658</v>
+        <v>1.83825212664059</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>2.097277246414546</v>
+        <v>2.19592658289049</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>5.131082885736712</v>
+        <v>5.037114406416039</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1.879805846965697</v>
+        <v>1.849819712266886</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>1.219304442811876</v>
+        <v>1.483900020756443</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>4.32112571581497</v>
+        <v>4.431430817758386</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>2.409715861100225</v>
+        <v>2.374736796082835</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>2.142285365635177</v>
+        <v>2.1695665789715</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>5.116171311693133</v>
+        <v>5.017245611268033</v>
       </c>
     </row>
     <row r="48">
@@ -2172,31 +2184,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>4.784929529177544</v>
+        <v>4.878533221667569</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>5.025064570646822</v>
+        <v>4.886434839575447</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>7.991386289744631</v>
+        <v>7.982868839950559</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>4.991808947447889</v>
+        <v>5.046501563640861</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>4.517929030641398</v>
+        <v>4.583459973549399</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>7.045403446446453</v>
+        <v>7.248390207161136</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>4.600870022116131</v>
+        <v>4.617671980667517</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>4.208290101251517</v>
+        <v>4.411143339920518</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>7.088795052619165</v>
+        <v>7.123957867156443</v>
       </c>
     </row>
     <row r="49">
@@ -2213,7 +2225,7 @@
         <v>0.4450812414357603</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.8136424220536174</v>
+        <v>0.8136424220536177</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.3399738799097463</v>
@@ -2242,31 +2254,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.2302279701789126</v>
+        <v>0.2207342768563257</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.2454064072105929</v>
+        <v>0.2560012817181573</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.5841736527528759</v>
+        <v>0.5829434881450227</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.1648954758087763</v>
+        <v>0.1630295324026122</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.1075584532339206</v>
+        <v>0.1332364344880234</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.3878870763138737</v>
+        <v>0.4036103541767431</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.2482718994144983</v>
+        <v>0.246701540867134</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.2229445789335069</v>
+        <v>0.2241175415252719</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.5232297335759499</v>
+        <v>0.5166302136161338</v>
       </c>
     </row>
     <row r="51">
@@ -2277,31 +2289,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.6556130539765708</v>
+        <v>0.6750890310179479</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.6757942749872432</v>
+        <v>0.6631878319837459</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>1.098956205396936</v>
+        <v>1.089386992514123</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.5112211434093709</v>
+        <v>0.528456534080733</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.4692767988557716</v>
+        <v>0.4741081818731293</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.746783199253703</v>
+        <v>0.7864170511941259</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.5356905035859618</v>
+        <v>0.5391328046642765</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.4894156158173613</v>
+        <v>0.5120671409405796</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.8266493269136819</v>
+        <v>0.8246262975919852</v>
       </c>
     </row>
     <row r="52">
